--- a/tests/test_case3.xlsx
+++ b/tests/test_case3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snra\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\src\snram\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="arcs" sheetId="2" r:id="rId2"/>
+    <sheet name="links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,9 +384,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -402,7 +402,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -418,7 +418,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -447,9 +447,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
